--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Serpinc1-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Serpinc1-Lrp1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.551825333333333</v>
+        <v>4.469240333333333</v>
       </c>
       <c r="H2">
-        <v>13.655476</v>
+        <v>13.407721</v>
       </c>
       <c r="I2">
-        <v>0.3901863008207799</v>
+        <v>0.3358648218165975</v>
       </c>
       <c r="J2">
-        <v>0.3901863008207799</v>
+        <v>0.3358648218165975</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.131233999999999</v>
+        <v>3.795192333333334</v>
       </c>
       <c r="N2">
-        <v>24.393702</v>
+        <v>11.385577</v>
       </c>
       <c r="O2">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="P2">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="Q2">
-        <v>37.01195691246133</v>
+        <v>16.96162664889078</v>
       </c>
       <c r="R2">
-        <v>333.107612212152</v>
+        <v>152.654639840017</v>
       </c>
       <c r="S2">
-        <v>0.00815877827667671</v>
+        <v>0.003507146670008805</v>
       </c>
       <c r="T2">
-        <v>0.00815877827667671</v>
+        <v>0.003507146670008805</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.551825333333333</v>
+        <v>4.469240333333333</v>
       </c>
       <c r="H3">
-        <v>13.655476</v>
+        <v>13.407721</v>
       </c>
       <c r="I3">
-        <v>0.3901863008207799</v>
+        <v>0.3358648218165975</v>
       </c>
       <c r="J3">
-        <v>0.3901863008207799</v>
+        <v>0.3358648218165975</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,25 +620,25 @@
         <v>243.3763986666667</v>
       </c>
       <c r="N3">
-        <v>730.129196</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O3">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="P3">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="Q3">
-        <v>1107.806856986366</v>
+        <v>1087.707617102479</v>
       </c>
       <c r="R3">
-        <v>9970.261712877296</v>
+        <v>9789.368553922317</v>
       </c>
       <c r="S3">
-        <v>0.2442008278814028</v>
+        <v>0.2249047350369336</v>
       </c>
       <c r="T3">
-        <v>0.2442008278814028</v>
+        <v>0.2249047350369336</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.551825333333333</v>
+        <v>4.469240333333333</v>
       </c>
       <c r="H4">
-        <v>13.655476</v>
+        <v>13.407721</v>
       </c>
       <c r="I4">
-        <v>0.3901863008207799</v>
+        <v>0.3358648218165975</v>
       </c>
       <c r="J4">
-        <v>0.3901863008207799</v>
+        <v>0.3358648218165975</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>33.41874933333333</v>
+        <v>29.801371</v>
       </c>
       <c r="N4">
-        <v>100.256248</v>
+        <v>89.404113</v>
       </c>
       <c r="O4">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219236</v>
       </c>
       <c r="P4">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219235</v>
       </c>
       <c r="Q4">
-        <v>152.1163098237831</v>
+        <v>133.1894892618303</v>
       </c>
       <c r="R4">
-        <v>1369.046788414048</v>
+        <v>1198.705403356473</v>
       </c>
       <c r="S4">
-        <v>0.03353195420209334</v>
+        <v>0.02753952102673768</v>
       </c>
       <c r="T4">
-        <v>0.03353195420209334</v>
+        <v>0.02753952102673767</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.551825333333333</v>
+        <v>4.469240333333333</v>
       </c>
       <c r="H5">
-        <v>13.655476</v>
+        <v>13.407721</v>
       </c>
       <c r="I5">
-        <v>0.3901863008207799</v>
+        <v>0.3358648218165975</v>
       </c>
       <c r="J5">
-        <v>0.3901863008207799</v>
+        <v>0.3358648218165975</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>103.9426383333333</v>
+        <v>86.47679266666667</v>
       </c>
       <c r="N5">
-        <v>311.827915</v>
+        <v>259.430378</v>
       </c>
       <c r="O5">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="P5">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="Q5">
-        <v>473.1287343791711</v>
+        <v>386.4855696831708</v>
       </c>
       <c r="R5">
-        <v>4258.15860941254</v>
+        <v>3478.370127148538</v>
       </c>
       <c r="S5">
-        <v>0.104294740460607</v>
+        <v>0.07991341908291741</v>
       </c>
       <c r="T5">
-        <v>0.104294740460607</v>
+        <v>0.07991341908291741</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>10.866118</v>
       </c>
       <c r="I6">
-        <v>0.3104842618962599</v>
+        <v>0.2721973992379558</v>
       </c>
       <c r="J6">
-        <v>0.3104842618962599</v>
+        <v>0.2721973992379558</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.131233999999999</v>
+        <v>3.795192333333334</v>
       </c>
       <c r="N6">
-        <v>24.393702</v>
+        <v>11.385577</v>
       </c>
       <c r="O6">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="P6">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="Q6">
-        <v>29.45164937653733</v>
+        <v>13.74633590889845</v>
       </c>
       <c r="R6">
-        <v>265.064844388836</v>
+        <v>123.717023180086</v>
       </c>
       <c r="S6">
-        <v>0.006492212171161647</v>
+        <v>0.002842322685534905</v>
       </c>
       <c r="T6">
-        <v>0.006492212171161647</v>
+        <v>0.002842322685534905</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>10.866118</v>
       </c>
       <c r="I7">
-        <v>0.3104842618962599</v>
+        <v>0.2721973992379558</v>
       </c>
       <c r="J7">
-        <v>0.3104842618962599</v>
+        <v>0.2721973992379558</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,25 +868,25 @@
         <v>243.3763986666667</v>
       </c>
       <c r="N7">
-        <v>730.129196</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O7">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="P7">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="Q7">
-        <v>881.5188887756809</v>
+        <v>881.518888775681</v>
       </c>
       <c r="R7">
-        <v>7933.669998981128</v>
+        <v>7933.66999898113</v>
       </c>
       <c r="S7">
-        <v>0.194318748863607</v>
+        <v>0.1822711995327212</v>
       </c>
       <c r="T7">
-        <v>0.194318748863607</v>
+        <v>0.1822711995327212</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>10.866118</v>
       </c>
       <c r="I8">
-        <v>0.3104842618962599</v>
+        <v>0.2721973992379558</v>
       </c>
       <c r="J8">
-        <v>0.3104842618962599</v>
+        <v>0.2721973992379558</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>33.41874933333333</v>
+        <v>29.801371</v>
       </c>
       <c r="N8">
-        <v>100.256248</v>
+        <v>89.404113</v>
       </c>
       <c r="O8">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219236</v>
       </c>
       <c r="P8">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219235</v>
       </c>
       <c r="Q8">
-        <v>121.0440245561404</v>
+        <v>107.9417379492593</v>
       </c>
       <c r="R8">
-        <v>1089.396221005264</v>
+        <v>971.4756415433339</v>
       </c>
       <c r="S8">
-        <v>0.02668249507600776</v>
+        <v>0.02231905669427435</v>
       </c>
       <c r="T8">
-        <v>0.02668249507600776</v>
+        <v>0.02231905669427434</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>10.866118</v>
       </c>
       <c r="I9">
-        <v>0.3104842618962599</v>
+        <v>0.2721973992379558</v>
       </c>
       <c r="J9">
-        <v>0.3104842618962599</v>
+        <v>0.2721973992379558</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>103.9426383333333</v>
+        <v>86.47679266666667</v>
       </c>
       <c r="N9">
-        <v>311.827915</v>
+        <v>259.430378</v>
       </c>
       <c r="O9">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="P9">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="Q9">
-        <v>376.4843244537744</v>
+        <v>313.2223444591783</v>
       </c>
       <c r="R9">
-        <v>3388.35892008397</v>
+        <v>2819.001100132604</v>
       </c>
       <c r="S9">
-        <v>0.08299080578548346</v>
+        <v>0.06476482032542537</v>
       </c>
       <c r="T9">
-        <v>0.08299080578548346</v>
+        <v>0.06476482032542535</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.200808</v>
+        <v>3.887787333333333</v>
       </c>
       <c r="H10">
-        <v>6.602424000000001</v>
+        <v>11.663362</v>
       </c>
       <c r="I10">
-        <v>0.1886551151355205</v>
+        <v>0.2921684453243378</v>
       </c>
       <c r="J10">
-        <v>0.1886551151355205</v>
+        <v>0.2921684453243377</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.131233999999999</v>
+        <v>3.795192333333334</v>
       </c>
       <c r="N10">
-        <v>24.393702</v>
+        <v>11.385577</v>
       </c>
       <c r="O10">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="P10">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="Q10">
-        <v>17.895284837072</v>
+        <v>14.75490068109711</v>
       </c>
       <c r="R10">
-        <v>161.057563533648</v>
+        <v>132.794106129874</v>
       </c>
       <c r="S10">
-        <v>0.003944770105751638</v>
+        <v>0.003050863095928625</v>
       </c>
       <c r="T10">
-        <v>0.003944770105751638</v>
+        <v>0.003050863095928624</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.200808</v>
+        <v>3.887787333333333</v>
       </c>
       <c r="H11">
-        <v>6.602424000000001</v>
+        <v>11.663362</v>
       </c>
       <c r="I11">
-        <v>0.1886551151355205</v>
+        <v>0.2921684453243378</v>
       </c>
       <c r="J11">
-        <v>0.1886551151355205</v>
+        <v>0.2921684453243377</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,25 +1116,25 @@
         <v>243.3763986666667</v>
       </c>
       <c r="N11">
-        <v>730.129196</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O11">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="P11">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="Q11">
-        <v>535.6247251967894</v>
+        <v>946.1956799685503</v>
       </c>
       <c r="R11">
-        <v>4820.622526771104</v>
+        <v>8515.761119716952</v>
       </c>
       <c r="S11">
-        <v>0.1180711244942354</v>
+        <v>0.1956443858169364</v>
       </c>
       <c r="T11">
-        <v>0.1180711244942354</v>
+        <v>0.1956443858169364</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.200808</v>
+        <v>3.887787333333333</v>
       </c>
       <c r="H12">
-        <v>6.602424000000001</v>
+        <v>11.663362</v>
       </c>
       <c r="I12">
-        <v>0.1886551151355205</v>
+        <v>0.2921684453243378</v>
       </c>
       <c r="J12">
-        <v>0.1886551151355205</v>
+        <v>0.2921684453243377</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>33.41874933333333</v>
+        <v>29.801371</v>
       </c>
       <c r="N12">
-        <v>100.256248</v>
+        <v>89.404113</v>
       </c>
       <c r="O12">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219236</v>
       </c>
       <c r="P12">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219235</v>
       </c>
       <c r="Q12">
-        <v>73.54825088279468</v>
+        <v>115.8613926897673</v>
       </c>
       <c r="R12">
-        <v>661.9342579451521</v>
+        <v>1042.752534207906</v>
       </c>
       <c r="S12">
-        <v>0.01621270318155163</v>
+        <v>0.02395659956240537</v>
       </c>
       <c r="T12">
-        <v>0.01621270318155163</v>
+        <v>0.02395659956240536</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.200808</v>
+        <v>3.887787333333333</v>
       </c>
       <c r="H13">
-        <v>6.602424000000001</v>
+        <v>11.663362</v>
       </c>
       <c r="I13">
-        <v>0.1886551151355205</v>
+        <v>0.2921684453243378</v>
       </c>
       <c r="J13">
-        <v>0.1886551151355205</v>
+        <v>0.2921684453243377</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>103.9426383333333</v>
+        <v>86.47679266666667</v>
       </c>
       <c r="N13">
-        <v>311.827915</v>
+        <v>259.430378</v>
       </c>
       <c r="O13">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="P13">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="Q13">
-        <v>228.7577899851067</v>
+        <v>336.2033791567596</v>
       </c>
       <c r="R13">
-        <v>2058.82010986596</v>
+        <v>3025.830412410836</v>
       </c>
       <c r="S13">
-        <v>0.05042651735398188</v>
+        <v>0.06951659684906733</v>
       </c>
       <c r="T13">
-        <v>0.05042651735398188</v>
+        <v>0.06951659684906732</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.291101666666667</v>
+        <v>1.327597</v>
       </c>
       <c r="H14">
-        <v>3.873305</v>
+        <v>3.982791</v>
       </c>
       <c r="I14">
-        <v>0.1106743221474397</v>
+        <v>0.09976933362110896</v>
       </c>
       <c r="J14">
-        <v>0.1106743221474397</v>
+        <v>0.09976933362110893</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>8.131233999999999</v>
+        <v>3.795192333333334</v>
       </c>
       <c r="N14">
-        <v>24.393702</v>
+        <v>11.385577</v>
       </c>
       <c r="O14">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="P14">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="Q14">
-        <v>10.49824976945666</v>
+        <v>5.038485956156334</v>
       </c>
       <c r="R14">
-        <v>94.48424792510998</v>
+        <v>45.346373605407</v>
       </c>
       <c r="S14">
-        <v>0.002314195176568234</v>
+        <v>0.001041805105654499</v>
       </c>
       <c r="T14">
-        <v>0.002314195176568233</v>
+        <v>0.001041805105654498</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.291101666666667</v>
+        <v>1.327597</v>
       </c>
       <c r="H15">
-        <v>3.873305</v>
+        <v>3.982791</v>
       </c>
       <c r="I15">
-        <v>0.1106743221474397</v>
+        <v>0.09976933362110896</v>
       </c>
       <c r="J15">
-        <v>0.1106743221474397</v>
+        <v>0.09976933362110893</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,25 +1364,25 @@
         <v>243.3763986666667</v>
       </c>
       <c r="N15">
-        <v>730.129196</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O15">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="P15">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="Q15">
-        <v>314.2236739458644</v>
+        <v>323.1057767406706</v>
       </c>
       <c r="R15">
-        <v>2828.01306551278</v>
+        <v>2907.951990666036</v>
       </c>
       <c r="S15">
-        <v>0.06926629929540186</v>
+        <v>0.06680841244850518</v>
       </c>
       <c r="T15">
-        <v>0.06926629929540185</v>
+        <v>0.06680841244850515</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.291101666666667</v>
+        <v>1.327597</v>
       </c>
       <c r="H16">
-        <v>3.873305</v>
+        <v>3.982791</v>
       </c>
       <c r="I16">
-        <v>0.1106743221474397</v>
+        <v>0.09976933362110896</v>
       </c>
       <c r="J16">
-        <v>0.1106743221474397</v>
+        <v>0.09976933362110893</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>33.41874933333333</v>
+        <v>29.801371</v>
       </c>
       <c r="N16">
-        <v>100.256248</v>
+        <v>89.404113</v>
       </c>
       <c r="O16">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219236</v>
       </c>
       <c r="P16">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219235</v>
       </c>
       <c r="Q16">
-        <v>43.14700296218221</v>
+        <v>39.56421073548699</v>
       </c>
       <c r="R16">
-        <v>388.32302665964</v>
+        <v>356.077896619383</v>
       </c>
       <c r="S16">
-        <v>0.009511165035238548</v>
+        <v>0.008180671158774976</v>
       </c>
       <c r="T16">
-        <v>0.009511165035238548</v>
+        <v>0.008180671158774973</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.291101666666667</v>
+        <v>1.327597</v>
       </c>
       <c r="H17">
-        <v>3.873305</v>
+        <v>3.982791</v>
       </c>
       <c r="I17">
-        <v>0.1106743221474397</v>
+        <v>0.09976933362110896</v>
       </c>
       <c r="J17">
-        <v>0.1106743221474397</v>
+        <v>0.09976933362110893</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>103.9426383333333</v>
+        <v>86.47679266666667</v>
       </c>
       <c r="N17">
-        <v>311.827915</v>
+        <v>259.430378</v>
       </c>
       <c r="O17">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="P17">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="Q17">
-        <v>134.2005135898972</v>
+        <v>114.8063305138887</v>
       </c>
       <c r="R17">
-        <v>1207.804622309075</v>
+        <v>1033.256974624998</v>
       </c>
       <c r="S17">
-        <v>0.02958266264023104</v>
+        <v>0.02373844490817431</v>
       </c>
       <c r="T17">
-        <v>0.02958266264023103</v>
+        <v>0.0237384449081743</v>
       </c>
     </row>
   </sheetData>
